--- a/Mechanical/BOMs/Sorting Rack BOM.xlsx
+++ b/Mechanical/BOMs/Sorting Rack BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
@@ -69,13 +69,10 @@
     <t>Raw Aluminum Material</t>
   </si>
   <si>
-    <t>UHMW Polyethylene Sheet 1/2" Thick, 6" x 6" Sheet Size</t>
-  </si>
-  <si>
-    <t>84765K125</t>
-  </si>
-  <si>
     <t>Bill of Materials for Sorting Rack (TENTATIVE)</t>
+  </si>
+  <si>
+    <t>DML</t>
   </si>
 </sst>
 </file>
@@ -448,16 +445,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,6 +480,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -806,22 +803,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
@@ -842,10 +839,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G7" si="0">D3*E3</f>
+        <f t="shared" ref="G3:G6" si="0">D3*E3</f>
         <v>1.99</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -867,10 +864,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -892,10 +889,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
@@ -916,64 +913,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6.91</v>
-      </c>
-      <c r="F6" s="6">
+    <row r="6" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>6.91</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A7" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -982,43 +966,43 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="31">
+        <f>SUM(G3:G6)</f>
+        <v>18.39</v>
+      </c>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="20">
-        <f>SUM(G3:G7)</f>
-        <v>25.3</v>
-      </c>
+      <c r="G11" s="32"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1027,8 +1011,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1037,8 +1021,8 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1047,8 +1031,8 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1057,8 +1041,8 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1067,8 +1051,8 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1077,8 +1061,8 @@
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1087,8 +1071,8 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1097,8 +1081,8 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1107,8 +1091,8 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1117,8 +1101,8 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1127,8 +1111,8 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1136,42 +1120,31 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A25:B25"/>
+  <mergeCells count="23">
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:E11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
